--- a/tabellenparser_Ueberlegungen.xlsx
+++ b/tabellenparser_Ueberlegungen.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{39925BB8-04FC-49DF-B94F-6AE514744C1D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="20115" windowHeight="9525"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:H20"/>
 </workbook>
 </file>
 
@@ -410,16 +412,16 @@
     <t>add, sub, close, semicolon</t>
   </si>
   <si>
-    <t>mult, div, mod, close, semicolon</t>
-  </si>
-  <si>
     <t>pot, close, semicolon</t>
+  </si>
+  <si>
+    <t>mult, div, mod, close, semicolon, add, sub</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,9 +564,6 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -573,6 +572,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -591,14 +593,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -636,9 +641,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,9 +676,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -706,9 +728,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -881,11 +920,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,12 +938,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="E1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="10" t="s">
@@ -913,476 +952,476 @@
       <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="G5" s="3" t="s">
+      <c r="E5" s="3"/>
+      <c r="G5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="3" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="5" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1397,7 +1436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1409,7 +1448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
